--- a/MainTop/24.10.2024/наклейки_sorted.xlsx
+++ b/MainTop/24.10.2024/наклейки_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="135">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -47,6 +47,36 @@
   </si>
   <si>
     <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г10</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
@@ -518,10 +548,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y99" activeCellId="0" sqref="Y99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,10 +590,40 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>16</v>
@@ -575,7 +635,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -587,12 +647,46 @@
         <v>120</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">SUM(K2:T2)-G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>6</v>
@@ -604,7 +698,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12</v>
@@ -616,12 +710,46 @@
         <v>120</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">SUM(K3:T3)-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>12</v>
@@ -633,7 +761,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -645,12 +773,46 @@
         <v>120</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">SUM(K4:T4)-G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12</v>
@@ -662,7 +824,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -674,12 +836,46 @@
         <v>120</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">SUM(K5:T5)-G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -691,7 +887,7 @@
         <v>130</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>-1</v>
@@ -703,12 +899,46 @@
         <v>120</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">SUM(K6:T6)-G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>19</v>
@@ -720,7 +950,7 @@
         <v>190</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>-7</v>
@@ -732,12 +962,46 @@
         <v>120</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">SUM(K7:T7)-G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>17</v>
@@ -749,7 +1013,7 @@
         <v>212.5</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>-7</v>
@@ -761,12 +1025,46 @@
         <v>120</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">SUM(K8:T8)-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>17</v>
@@ -778,7 +1076,7 @@
         <v>212.5</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-7</v>
@@ -790,12 +1088,46 @@
         <v>120</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">SUM(K9:T9)-G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10</v>
@@ -807,7 +1139,7 @@
         <v>125</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -819,12 +1151,46 @@
         <v>120</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">SUM(K10:T10)-G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
@@ -836,7 +1202,7 @@
         <v>125</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -848,12 +1214,46 @@
         <v>120</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">SUM(K11:T11)-G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>9</v>
@@ -865,7 +1265,7 @@
         <v>112.5</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -877,12 +1277,46 @@
         <v>120</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">SUM(K12:T12)-G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>15</v>
@@ -894,7 +1328,7 @@
         <v>187.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>-5</v>
@@ -906,12 +1340,46 @@
         <v>120</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">SUM(K13:T13)-G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>11</v>
@@ -923,7 +1391,7 @@
         <v>157.14</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>-3</v>
@@ -935,12 +1403,46 @@
         <v>120</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">SUM(K14:T14)-G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>18</v>
@@ -952,7 +1454,7 @@
         <v>257.14</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>-10</v>
@@ -964,12 +1466,46 @@
         <v>120</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">SUM(K15:T15)-G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7</v>
@@ -981,7 +1517,7 @@
         <v>140</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>-1</v>
@@ -993,12 +1529,46 @@
         <v>120</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">SUM(K16:T16)-G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>11</v>
@@ -1010,7 +1580,7 @@
         <v>220</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>-5</v>
@@ -1022,12 +1592,46 @@
         <v>120</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">SUM(K17:T17)-G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>8</v>
@@ -1039,24 +1643,58 @@
         <v>160</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>-2</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">SUM(K18:T18)-G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7</v>
@@ -1068,24 +1706,58 @@
         <v>140</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">SUM(K19:T19)-G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>9</v>
@@ -1097,24 +1769,58 @@
         <v>180</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>-3</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">SUM(K20:T20)-G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>16</v>
@@ -1126,24 +1832,58 @@
         <v>533.33</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>-12</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">SUM(K21:T21)-G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -1155,24 +1895,58 @@
         <v>333.33</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>-6</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">SUM(K22:T22)-G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
@@ -1184,24 +1958,58 @@
         <v>66.67</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">SUM(K23:T23)-G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5</v>
@@ -1213,24 +2021,58 @@
         <v>166.67</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">SUM(K24:T24)-G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10</v>
@@ -1242,24 +2084,58 @@
         <v>333.33</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>-6</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">SUM(K25:T25)-G25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>16</v>
@@ -1271,24 +2147,58 @@
         <v>533.33</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>-12</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">SUM(K26:T26)-G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>7</v>
@@ -1300,7 +2210,7 @@
         <v>233.33</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>-3</v>
@@ -1312,12 +2222,46 @@
         <v>120</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">SUM(K27:T27)-G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>13</v>
@@ -1329,7 +2273,7 @@
         <v>650</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>-11</v>
@@ -1341,12 +2285,46 @@
         <v>120</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">SUM(K28:T28)-G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5</v>
@@ -1358,7 +2336,7 @@
         <v>250</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>-3</v>
@@ -1370,12 +2348,46 @@
         <v>120</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">SUM(K29:T29)-G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>12</v>
@@ -1387,7 +2399,7 @@
         <v>600</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>-10</v>
@@ -1399,12 +2411,46 @@
         <v>120</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">SUM(K30:T30)-G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>11</v>
@@ -1416,7 +2462,7 @@
         <v>550</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>-9</v>
@@ -1428,12 +2474,46 @@
         <v>120</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">SUM(K31:T31)-G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>12</v>
@@ -1445,7 +2525,7 @@
         <v>600</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>-10</v>
@@ -1457,12 +2537,46 @@
         <v>120</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">SUM(K32:T32)-G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>10</v>
@@ -1474,7 +2588,7 @@
         <v>500</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>-8</v>
@@ -1486,12 +2600,46 @@
         <v>120</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">SUM(K33:T33)-G33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>11</v>
@@ -1503,7 +2651,7 @@
         <v>550</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>-9</v>
@@ -1515,12 +2663,46 @@
         <v>120</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">SUM(K34:T34)-G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>14</v>
@@ -1532,7 +2714,7 @@
         <v>700</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>-12</v>
@@ -1544,12 +2726,46 @@
         <v>120</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">SUM(K35:T35)-G35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -1561,7 +2777,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
@@ -1573,12 +2789,46 @@
         <v>120</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">SUM(K36:T36)-G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>4</v>
@@ -1590,7 +2840,7 @@
         <v>200</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>-2</v>
@@ -1602,12 +2852,46 @@
         <v>120</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">SUM(K37:T37)-G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>9</v>
@@ -1619,7 +2903,7 @@
         <v>450</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>-7</v>
@@ -1631,12 +2915,46 @@
         <v>120</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">SUM(K38:T38)-G38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
@@ -1645,21 +2963,55 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">SUM(K39:T39)-G39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>55</v>
@@ -1671,7 +3023,7 @@
         <v>53.92</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>67</v>
@@ -1683,16 +3035,50 @@
         <v>120</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J40" s="0" t="n">
         <f aca="false">G40/4</f>
         <v>15</v>
       </c>
+      <c r="K40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">SUM(K40:T40)-G40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>43</v>
@@ -1704,7 +3090,7 @@
         <v>75.44</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>25</v>
@@ -1716,16 +3102,50 @@
         <v>120</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J41" s="2" t="n">
         <f aca="false">G41/4</f>
         <v>10</v>
       </c>
+      <c r="K41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">SUM(K41:T41)-G41</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>46</v>
@@ -1737,7 +3157,7 @@
         <v>92</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>14</v>
@@ -1749,16 +3169,50 @@
         <v>120</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J42" s="2" t="n">
         <f aca="false">G42/4</f>
         <v>7</v>
       </c>
+      <c r="K42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">SUM(K42:T42)-G42</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>37</v>
@@ -1770,7 +3224,7 @@
         <v>77.08</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>21</v>
@@ -1782,16 +3236,50 @@
         <v>120</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">G43/4</f>
         <v>7</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">SUM(K43:T43)-G43</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>33</v>
@@ -1803,7 +3291,7 @@
         <v>73.33</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>21</v>
@@ -1815,16 +3303,50 @@
         <v>120</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J44" s="2" t="n">
         <f aca="false">G44/4</f>
         <v>7</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <f aca="false">SUM(K44:T44)-G44</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>29</v>
@@ -1836,7 +3358,7 @@
         <v>76.32</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>17</v>
@@ -1848,16 +3370,50 @@
         <v>120</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J45" s="2" t="n">
         <f aca="false">G45/4</f>
         <v>6</v>
       </c>
+      <c r="K45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">SUM(K45:T45)-G45</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>16</v>
@@ -1869,7 +3425,7 @@
         <v>45.71</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>26</v>
@@ -1881,16 +3437,50 @@
         <v>120</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J46" s="2" t="n">
         <f aca="false">G46/4</f>
         <v>6</v>
       </c>
+      <c r="K46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">SUM(K46:T46)-G46</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>19</v>
@@ -1902,7 +3492,7 @@
         <v>57.58</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>21</v>
@@ -1914,16 +3504,50 @@
         <v>120</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J47" s="2" t="n">
         <f aca="false">G47/4</f>
         <v>5</v>
       </c>
+      <c r="K47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <f aca="false">SUM(K47:T47)-G47</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>39</v>
@@ -1935,7 +3559,7 @@
         <v>144.44</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>-7</v>
@@ -1947,16 +3571,50 @@
         <v>120</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J48" s="2" t="n">
         <f aca="false">G48/4</f>
         <v>4</v>
       </c>
+      <c r="K48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">SUM(K48:T48)-G48</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>28</v>
@@ -1968,7 +3626,7 @@
         <v>103.7</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>4</v>
@@ -1980,16 +3638,50 @@
         <v>120</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J49" s="2" t="n">
         <f aca="false">G49/4</f>
         <v>4</v>
       </c>
+      <c r="K49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">SUM(K49:T49)-G49</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>25</v>
@@ -2001,7 +3693,7 @@
         <v>92.59</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>7</v>
@@ -2013,16 +3705,50 @@
         <v>120</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J50" s="2" t="n">
         <f aca="false">G50/4</f>
         <v>4</v>
       </c>
+      <c r="K50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <f aca="false">SUM(K50:T50)-G50</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>19</v>
@@ -2034,7 +3760,7 @@
         <v>82.61</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>9</v>
@@ -2046,16 +3772,50 @@
         <v>120</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J51" s="2" t="n">
         <f aca="false">G51/4</f>
         <v>4</v>
       </c>
+      <c r="K51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <f aca="false">SUM(K51:T51)-G51</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>25</v>
@@ -2067,7 +3827,7 @@
         <v>113.64</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
@@ -2079,16 +3839,50 @@
         <v>120</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J52" s="2" t="n">
         <f aca="false">G52/4</f>
         <v>3</v>
       </c>
+      <c r="K52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <f aca="false">SUM(K52:T52)-G52</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>6</v>
@@ -2100,7 +3894,7 @@
         <v>30</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>18</v>
@@ -2112,16 +3906,50 @@
         <v>120</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J53" s="2" t="n">
         <f aca="false">G53/4</f>
         <v>3</v>
       </c>
+      <c r="K53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <f aca="false">SUM(K53:T53)-G53</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>13</v>
@@ -2133,7 +3961,7 @@
         <v>72.22</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>9</v>
@@ -2145,16 +3973,50 @@
         <v>120</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J54" s="2" t="n">
         <f aca="false">G54/4</f>
         <v>3</v>
       </c>
+      <c r="K54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <f aca="false">SUM(K54:T54)-G54</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>14</v>
@@ -2166,7 +4028,7 @@
         <v>77.78</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -2178,16 +4040,50 @@
         <v>120</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J55" s="2" t="n">
         <f aca="false">G55/4</f>
         <v>3</v>
       </c>
+      <c r="K55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <f aca="false">SUM(K55:T55)-G55</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>17</v>
@@ -2199,7 +4095,7 @@
         <v>94.44</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>5</v>
@@ -2211,16 +4107,50 @@
         <v>120</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J56" s="2" t="n">
         <f aca="false">G56/4</f>
         <v>3</v>
       </c>
+      <c r="K56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <f aca="false">SUM(K56:T56)-G56</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>6</v>
@@ -2232,7 +4162,7 @@
         <v>33.33</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>16</v>
@@ -2244,16 +4174,50 @@
         <v>120</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J57" s="2" t="n">
         <f aca="false">G57/4</f>
         <v>3</v>
       </c>
+      <c r="K57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <f aca="false">SUM(K57:T57)-G57</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>9</v>
@@ -2265,7 +4229,7 @@
         <v>52.94</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>11</v>
@@ -2277,16 +4241,50 @@
         <v>120</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J58" s="2" t="n">
         <f aca="false">G58/4</f>
         <v>3</v>
       </c>
+      <c r="K58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <f aca="false">SUM(K58:T58)-G58</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>17</v>
@@ -2298,7 +4296,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>3</v>
@@ -2310,16 +4308,50 @@
         <v>120</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J59" s="2" t="n">
         <f aca="false">G59/4</f>
         <v>3</v>
       </c>
+      <c r="K59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <f aca="false">SUM(K59:T59)-G59</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>15</v>
@@ -2331,7 +4363,7 @@
         <v>88.24</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>5</v>
@@ -2343,16 +4375,50 @@
         <v>120</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J60" s="2" t="n">
         <f aca="false">G60/4</f>
         <v>3</v>
       </c>
+      <c r="K60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <f aca="false">SUM(K60:T60)-G60</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>22</v>
@@ -2364,7 +4430,7 @@
         <v>129.41</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>-2</v>
@@ -2376,16 +4442,50 @@
         <v>120</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J61" s="2" t="n">
         <f aca="false">G61/4</f>
         <v>3</v>
       </c>
+      <c r="K61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <f aca="false">SUM(K61:T61)-G61</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>17</v>
@@ -2397,7 +4497,7 @@
         <v>106.25</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2</v>
@@ -2409,16 +4509,50 @@
         <v>120</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J62" s="2" t="n">
         <f aca="false">G62/4</f>
         <v>3</v>
       </c>
+      <c r="K62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <f aca="false">SUM(K62:T62)-G62</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>15</v>
@@ -2430,7 +4564,7 @@
         <v>100</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>3</v>
@@ -2442,16 +4576,50 @@
         <v>120</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J63" s="2" t="n">
         <f aca="false">G63/4</f>
         <v>3</v>
       </c>
+      <c r="K63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <f aca="false">SUM(K63:T63)-G63</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>10</v>
@@ -2463,7 +4631,7 @@
         <v>66.67</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>8</v>
@@ -2475,16 +4643,50 @@
         <v>120</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J64" s="2" t="n">
         <f aca="false">G64/4</f>
         <v>3</v>
       </c>
+      <c r="K64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <f aca="false">SUM(K64:T64)-G64</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>17</v>
@@ -2496,7 +4698,7 @@
         <v>130.77</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>-1</v>
@@ -2508,16 +4710,50 @@
         <v>120</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J65" s="2" t="n">
         <f aca="false">G65/4</f>
         <v>2</v>
       </c>
+      <c r="K65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <f aca="false">SUM(K65:T65)-G65</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>14</v>
@@ -2529,7 +4765,7 @@
         <v>107.69</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2</v>
@@ -2541,16 +4777,50 @@
         <v>120</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J66" s="2" t="n">
         <f aca="false">G66/4</f>
         <v>2</v>
       </c>
+      <c r="K66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <f aca="false">SUM(K66:T66)-G66</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>11</v>
@@ -2562,7 +4832,7 @@
         <v>84.62</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>5</v>
@@ -2574,16 +4844,50 @@
         <v>120</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J67" s="2" t="n">
         <f aca="false">G67/4</f>
         <v>2</v>
       </c>
+      <c r="K67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <f aca="false">SUM(K67:T67)-G67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>21</v>
@@ -2595,7 +4899,7 @@
         <v>161.54</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>-5</v>
@@ -2607,16 +4911,50 @@
         <v>120</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J68" s="2" t="n">
         <f aca="false">G68/4</f>
         <v>2</v>
       </c>
+      <c r="K68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <f aca="false">SUM(K68:T68)-G68</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>10</v>
@@ -2628,7 +4966,7 @@
         <v>76.92</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>6</v>
@@ -2640,16 +4978,50 @@
         <v>120</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J69" s="2" t="n">
         <f aca="false">G69/4</f>
         <v>2</v>
       </c>
+      <c r="K69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <f aca="false">SUM(K69:T69)-G69</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>9</v>
@@ -2661,7 +5033,7 @@
         <v>69.23</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>7</v>
@@ -2673,16 +5045,50 @@
         <v>120</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J70" s="2" t="n">
         <f aca="false">G70/4</f>
         <v>2</v>
       </c>
+      <c r="K70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <f aca="false">SUM(K70:T70)-G70</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>8</v>
@@ -2694,7 +5100,7 @@
         <v>66.67</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>6</v>
@@ -2706,16 +5112,50 @@
         <v>120</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J71" s="2" t="n">
         <f aca="false">G71/4</f>
         <v>2</v>
       </c>
+      <c r="K71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <f aca="false">SUM(K71:T71)-G71</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>14</v>
@@ -2727,7 +5167,7 @@
         <v>116.67</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -2739,16 +5179,50 @@
         <v>120</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J72" s="2" t="n">
         <f aca="false">G72/4</f>
         <v>2</v>
       </c>
+      <c r="K72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <f aca="false">SUM(K72:T72)-G72</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>12</v>
@@ -2760,7 +5234,7 @@
         <v>100</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2</v>
@@ -2772,16 +5246,50 @@
         <v>120</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J73" s="2" t="n">
         <f aca="false">G73/4</f>
         <v>2</v>
       </c>
+      <c r="K73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <f aca="false">SUM(K73:T73)-G73</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>7</v>
@@ -2793,7 +5301,7 @@
         <v>70</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>5</v>
@@ -2805,16 +5313,50 @@
         <v>120</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J74" s="2" t="n">
         <f aca="false">G74/4</f>
         <v>2</v>
       </c>
+      <c r="K74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <f aca="false">SUM(K74:T74)-G74</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>13</v>
@@ -2826,7 +5368,7 @@
         <v>130</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>-1</v>
@@ -2838,16 +5380,50 @@
         <v>120</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J75" s="2" t="n">
         <f aca="false">G75/4</f>
         <v>2</v>
       </c>
+      <c r="K75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <f aca="false">SUM(K75:T75)-G75</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>12</v>
@@ -2859,7 +5435,7 @@
         <v>120</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>0</v>
@@ -2871,16 +5447,50 @@
         <v>120</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J76" s="2" t="n">
         <f aca="false">G76/4</f>
         <v>2</v>
       </c>
+      <c r="K76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <f aca="false">SUM(K76:T76)-G76</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>10</v>
@@ -2892,7 +5502,7 @@
         <v>100</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>2</v>
@@ -2904,16 +5514,50 @@
         <v>120</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J77" s="2" t="n">
         <f aca="false">G77/4</f>
         <v>2</v>
       </c>
+      <c r="K77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <f aca="false">SUM(K77:T77)-G77</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -2925,7 +5569,7 @@
         <v>40</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>8</v>
@@ -2937,16 +5581,50 @@
         <v>120</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J78" s="2" t="n">
         <f aca="false">G78/4</f>
         <v>2</v>
       </c>
+      <c r="K78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <f aca="false">SUM(K78:T78)-G78</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>19</v>
@@ -2958,7 +5636,7 @@
         <v>190</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>-7</v>
@@ -2970,16 +5648,50 @@
         <v>120</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J79" s="2" t="n">
         <f aca="false">G79/4</f>
         <v>2</v>
       </c>
+      <c r="K79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <f aca="false">SUM(K79:T79)-G79</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>14</v>
@@ -2991,7 +5703,7 @@
         <v>175</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>-4</v>
@@ -3003,16 +5715,50 @@
         <v>120</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J80" s="2" t="n">
         <f aca="false">G80/4</f>
         <v>2</v>
       </c>
+      <c r="K80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <f aca="false">SUM(K80:T80)-G80</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -3024,7 +5770,7 @@
         <v>62.5</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>5</v>
@@ -3036,16 +5782,50 @@
         <v>120</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J81" s="2" t="n">
         <f aca="false">G81/4</f>
         <v>2</v>
       </c>
+      <c r="K81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <f aca="false">SUM(K81:T81)-G81</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>10</v>
@@ -3057,7 +5837,7 @@
         <v>125</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>0</v>
@@ -3069,16 +5849,50 @@
         <v>120</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J82" s="2" t="n">
         <f aca="false">G82/4</f>
         <v>2</v>
       </c>
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <f aca="false">SUM(K82:T82)-G82</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>11</v>
@@ -3090,7 +5904,7 @@
         <v>137.5</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>-1</v>
@@ -3102,16 +5916,50 @@
         <v>120</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J83" s="2" t="n">
         <f aca="false">G83/4</f>
         <v>2</v>
       </c>
+      <c r="K83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <f aca="false">SUM(K83:T83)-G83</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>12</v>
@@ -3123,7 +5971,7 @@
         <v>150</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>-2</v>
@@ -3135,16 +5983,50 @@
         <v>120</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J84" s="2" t="n">
         <f aca="false">G84/4</f>
         <v>2</v>
       </c>
+      <c r="K84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <f aca="false">SUM(K84:T84)-G84</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>10</v>
@@ -3156,7 +6038,7 @@
         <v>142.86</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>-2</v>
@@ -3168,16 +6050,50 @@
         <v>120</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J85" s="2" t="n">
         <f aca="false">G85/4</f>
         <v>1</v>
       </c>
+      <c r="K85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <f aca="false">SUM(K85:T85)-G85</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>7</v>
@@ -3189,7 +6105,7 @@
         <v>100</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>1</v>
@@ -3201,16 +6117,50 @@
         <v>120</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J86" s="2" t="n">
         <f aca="false">G86/4</f>
         <v>1</v>
       </c>
+      <c r="K86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <f aca="false">SUM(K86:T86)-G86</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>11</v>
@@ -3222,7 +6172,7 @@
         <v>157.14</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>-3</v>
@@ -3234,16 +6184,50 @@
         <v>120</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J87" s="2" t="n">
         <f aca="false">G87/4</f>
         <v>1</v>
       </c>
+      <c r="K87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <f aca="false">SUM(K87:T87)-G87</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -3255,7 +6239,7 @@
         <v>71.43</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>3</v>
@@ -3267,16 +6251,50 @@
         <v>120</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J88" s="2" t="n">
         <f aca="false">G88/4</f>
         <v>1</v>
       </c>
+      <c r="K88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <f aca="false">SUM(K88:T88)-G88</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>12</v>
@@ -3288,7 +6306,7 @@
         <v>171.43</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>-4</v>
@@ -3300,16 +6318,50 @@
         <v>120</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J89" s="2" t="n">
         <f aca="false">G89/4</f>
         <v>1</v>
       </c>
+      <c r="K89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <f aca="false">SUM(K89:T89)-G89</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>12</v>
@@ -3321,7 +6373,7 @@
         <v>171.43</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>-4</v>
@@ -3333,16 +6385,50 @@
         <v>120</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J90" s="2" t="n">
         <f aca="false">G90/4</f>
         <v>1</v>
       </c>
+      <c r="K90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <f aca="false">SUM(K90:T90)-G90</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>20</v>
@@ -3354,7 +6440,7 @@
         <v>285.71</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>-12</v>
@@ -3366,16 +6452,50 @@
         <v>120</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J91" s="2" t="n">
         <f aca="false">G91/4</f>
         <v>1</v>
       </c>
+      <c r="K91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <f aca="false">SUM(K91:T91)-G91</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>11</v>
@@ -3387,7 +6507,7 @@
         <v>183.33</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>-4</v>
@@ -3399,16 +6519,50 @@
         <v>120</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J92" s="2" t="n">
         <f aca="false">G92/4</f>
         <v>1</v>
       </c>
+      <c r="K92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <f aca="false">SUM(K92:T92)-G92</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>22</v>
@@ -3420,7 +6574,7 @@
         <v>440</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>-16</v>
@@ -3432,16 +6586,50 @@
         <v>120</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J93" s="2" t="n">
         <f aca="false">G93/4</f>
         <v>1</v>
       </c>
+      <c r="K93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" s="0" t="n">
+        <f aca="false">SUM(K93:T93)-G93</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>10</v>
@@ -3453,7 +6641,7 @@
         <v>200</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>-4</v>
@@ -3465,16 +6653,50 @@
         <v>120</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J94" s="2" t="n">
         <f aca="false">G94/4</f>
         <v>1</v>
       </c>
+      <c r="K94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" s="0" t="n">
+        <f aca="false">SUM(K94:T94)-G94</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>5</v>
@@ -3486,7 +6708,7 @@
         <v>100</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>1</v>
@@ -3498,16 +6720,50 @@
         <v>120</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J95" s="2" t="n">
         <f aca="false">G95/4</f>
         <v>1</v>
       </c>
+      <c r="K95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <f aca="false">SUM(K95:T95)-G95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>7</v>
@@ -3519,7 +6775,7 @@
         <v>140</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>-1</v>
@@ -3531,16 +6787,50 @@
         <v>120</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J96" s="2" t="n">
         <f aca="false">G96/4</f>
         <v>1</v>
       </c>
+      <c r="K96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" s="0" t="n">
+        <f aca="false">SUM(K96:T96)-G96</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>15</v>
@@ -3552,7 +6842,7 @@
         <v>300</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>-9</v>
@@ -3564,16 +6854,50 @@
         <v>120</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J97" s="2" t="n">
         <f aca="false">G97/4</f>
         <v>1</v>
       </c>
+      <c r="K97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" s="0" t="n">
+        <f aca="false">SUM(K97:T97)-G97</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>9</v>
@@ -3585,7 +6909,7 @@
         <v>180</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>-3</v>
@@ -3597,16 +6921,50 @@
         <v>120</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J98" s="2" t="n">
         <f aca="false">G98/4</f>
         <v>1</v>
       </c>
+      <c r="K98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="0" t="n">
+        <f aca="false">SUM(K98:T98)-G98</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>13</v>
@@ -3618,7 +6976,7 @@
         <v>260</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>-7</v>
@@ -3630,16 +6988,50 @@
         <v>120</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J99" s="2" t="n">
         <f aca="false">G99/4</f>
         <v>1</v>
       </c>
+      <c r="K99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <f aca="false">SUM(K99:T99)-G99</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>11</v>
@@ -3651,7 +7043,7 @@
         <v>220</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>-5</v>
@@ -3663,16 +7055,50 @@
         <v>120</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J100" s="2" t="n">
         <f aca="false">G100/4</f>
         <v>1</v>
       </c>
+      <c r="K100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <f aca="false">SUM(K100:T100)-G100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -3684,7 +7110,7 @@
         <v>233.33</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>-3</v>
@@ -3696,16 +7122,50 @@
         <v>120</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J101" s="2" t="n">
         <f aca="false">G101/4</f>
         <v>1</v>
       </c>
+      <c r="K101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" s="0" t="n">
+        <f aca="false">SUM(K101:T101)-G101</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>21</v>
@@ -3717,7 +7177,7 @@
         <v>700</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>-17</v>
@@ -3729,16 +7189,50 @@
         <v>120</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J102" s="2" t="n">
         <f aca="false">G102/4</f>
         <v>1</v>
       </c>
+      <c r="K102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" s="0" t="n">
+        <f aca="false">SUM(K102:T102)-G102</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>3</v>
@@ -3750,7 +7244,7 @@
         <v>100</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>1</v>
@@ -3762,16 +7256,50 @@
         <v>120</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J103" s="2" t="n">
         <f aca="false">G103/4</f>
         <v>1</v>
       </c>
+      <c r="K103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" s="0" t="n">
+        <f aca="false">SUM(K103:T103)-G103</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>7</v>
@@ -3783,7 +7311,7 @@
         <v>233.33</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>-3</v>
@@ -3795,16 +7323,50 @@
         <v>120</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J104" s="2" t="n">
         <f aca="false">G104/4</f>
         <v>1</v>
       </c>
+      <c r="K104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <f aca="false">SUM(K104:T104)-G104</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>19</v>
@@ -3816,7 +7378,7 @@
         <v>950</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>-17</v>
@@ -3828,16 +7390,50 @@
         <v>120</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J105" s="2" t="n">
         <f aca="false">G105/4</f>
         <v>1</v>
       </c>
+      <c r="K105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <f aca="false">SUM(K105:T105)-G105</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2</v>
@@ -3849,7 +7445,7 @@
         <v>100</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>0</v>
@@ -3861,16 +7457,50 @@
         <v>120</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J106" s="2" t="n">
         <f aca="false">G106/4</f>
         <v>1</v>
       </c>
+      <c r="K106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <f aca="false">SUM(K106:T106)-G106</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>3</v>
@@ -3882,7 +7512,7 @@
         <v>150</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>-1</v>
@@ -3894,16 +7524,50 @@
         <v>120</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J107" s="2" t="n">
         <f aca="false">G107/4</f>
         <v>1</v>
       </c>
+      <c r="K107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <f aca="false">SUM(K107:T107)-G107</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>4</v>
@@ -3915,7 +7579,7 @@
         <v>200</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>-2</v>
@@ -3927,16 +7591,50 @@
         <v>120</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J108" s="2" t="n">
         <f aca="false">G108/4</f>
         <v>1</v>
       </c>
+      <c r="K108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" s="0" t="n">
+        <f aca="false">SUM(K108:T108)-G108</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>24</v>
@@ -3948,7 +7646,7 @@
         <v>1200</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>-22</v>
@@ -3960,16 +7658,50 @@
         <v>120</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J109" s="2" t="n">
         <f aca="false">G109/4</f>
         <v>1</v>
       </c>
+      <c r="K109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <f aca="false">SUM(K109:T109)-G109</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3</v>
@@ -3978,20 +7710,54 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J110" s="2" t="n">
         <f aca="false">G110/4</f>
         <v>1</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" s="0" t="n">
+        <f aca="false">SUM(K110:T110)-G110</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
